--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R46133cf5e6c24a01"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9ae1dd17723e405b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R39f4d0504a7e4efe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rde0351acae2f4237"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc3ea8b41eb504b37"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2738a3e5db164c15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R209f00e70c6e46d6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R742a2ddf599f41b6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf04a2b76d8214c2e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9309cad39033471a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6854a544b8ed4d72"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R388dd4c27f8747c8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R39f4d0504a7e4efe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rde0351acae2f4237"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rfb1386d84e46470b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R8bc5988ea7fe4441"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2738a3e5db164c15"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbda1d29cc9464241"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R742a2ddf599f41b6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raaea2aee6db64641"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9309cad39033471a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0ded3ac399324d73"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R388dd4c27f8747c8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3faa9ee229554ce4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rfb1386d84e46470b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R8bc5988ea7fe4441"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R14d55729e45f4c07"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R085810f4c15f46de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbda1d29cc9464241"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a293671a1e548a8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raaea2aee6db64641"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R84c3288fb56d450d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0ded3ac399324d73"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R556dc9a0b2e54938"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3faa9ee229554ce4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R76968658cb2c455a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R14d55729e45f4c07"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R085810f4c15f46de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R7e1859271edb4a2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9f2de21ef0c043d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a293671a1e548a8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re69929dc3087417f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R84c3288fb56d450d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfba9eac15c7f4c9c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R556dc9a0b2e54938"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea2a93e537bc4139"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R76968658cb2c455a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19b6c9d3be884011"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R7e1859271edb4a2b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9f2de21ef0c043d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R5548f49163954405"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rb9d03241801346dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re69929dc3087417f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70867201a73e458b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfba9eac15c7f4c9c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19257e6e21b3430c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea2a93e537bc4139"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc8c86b3ac7be4de5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19b6c9d3be884011"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73b492289bd24dd5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R5548f49163954405"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rb9d03241801346dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rd574740193a846c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rcbc852776c2a47b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70867201a73e458b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a78ff0a60154d6c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19257e6e21b3430c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R21dfcd80216b43c4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc8c86b3ac7be4de5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb31448274d3641c7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73b492289bd24dd5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R442dcf3b5c934529"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rd574740193a846c0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rcbc852776c2a47b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rfa5eaa8676af4488"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R0ffc3521cf20495f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a78ff0a60154d6c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcdfc502839ab4ce0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R21dfcd80216b43c4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf02ea5d43eaf43d0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb31448274d3641c7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0651ab3834cb4c9a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R442dcf3b5c934529"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R76332d5bab454e17"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rfa5eaa8676af4488"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R0ffc3521cf20495f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rcefd7d265f064047"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R31a3a0d0288146a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcdfc502839ab4ce0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R151d81502b694ceb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf02ea5d43eaf43d0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra269560f691641f1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0651ab3834cb4c9a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc8d78fa2cbdc4649"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R76332d5bab454e17"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98ac6b52e90a47c5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rcefd7d265f064047"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R31a3a0d0288146a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R8357dcce70b242d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rfa4991a876714e31"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R151d81502b694ceb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R678258bafa7e45bc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra269560f691641f1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b1e0bca9d024640"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc8d78fa2cbdc4649"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra374ed67b83946d3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98ac6b52e90a47c5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R76ab8e4326bd4388"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R8357dcce70b242d4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rfa4991a876714e31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R6e7211ef9d3b4926"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rb81abe62fcb54785"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R678258bafa7e45bc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25c46575def34e92"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b1e0bca9d024640"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c29ae0829e34f31"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra374ed67b83946d3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd95ee9d2b2e84a4a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R76ab8e4326bd4388"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R227cdba30cb1426f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R6e7211ef9d3b4926"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rb81abe62fcb54785"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Ra177300a229c4464"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rae31c3cf973a41ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25c46575def34e92"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R224f5f4245f24cd3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c29ae0829e34f31"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd9e51bd3d4b4077"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd95ee9d2b2e84a4a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19612faf0eeb4a49"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R227cdba30cb1426f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R193bebbcc3444403"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Ra177300a229c4464"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rae31c3cf973a41ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R7b23259dcda24aa9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rba2a9c6594d74e66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R224f5f4245f24cd3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88e6e8e065384903"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd9e51bd3d4b4077"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43ee42bb1c6a4d21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19612faf0eeb4a49"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fed37bf7ae84fed"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R193bebbcc3444403"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a99af7f91bd456c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/045_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R7b23259dcda24aa9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rba2a9c6594d74e66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rf8d7c983dc0746f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rc688a7627ad24448"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -394,7 +394,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88e6e8e065384903"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1864b4b98984a97"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -424,7 +424,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43ee42bb1c6a4d21"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a2f6e3841724ea3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -454,7 +454,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fed37bf7ae84fed"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0d61277043140f3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -571,6 +571,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a99af7f91bd456c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12cc3aeb69fd415d"/>
 </x:worksheet>
 </file>